--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1086.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1086.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.096127520242092</v>
+        <v>1.180087685585022</v>
       </c>
       <c r="B1">
-        <v>2.1568787552675</v>
+        <v>2.417452573776245</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.853567814602934</v>
+        <v>2.331658601760864</v>
       </c>
       <c r="E1">
-        <v>1.222498890722839</v>
+        <v>1.193108081817627</v>
       </c>
     </row>
   </sheetData>
